--- a/fpt_dsqzs/data/api_data.xlsx
+++ b/fpt_dsqzs/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="project_peizhi" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>projectName</t>
   </si>
@@ -30,7 +30,7 @@
     <t>http://172.25.2.106:52087</t>
   </si>
   <si>
-    <t>appid</t>
+    <t>appId</t>
   </si>
   <si>
     <t>cb12f07bbd5c57649d040149864c2518ae8179250463298606d7fdd3659ca0b6</t>
@@ -42,7 +42,16 @@
     <t>1ACB5A680CAB7E17</t>
   </si>
   <si>
-    <t>SKP_NO</t>
+    <t>kplsh_taitou</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>4个字符</t>
+  </si>
+  <si>
+    <t>XSF_NSRSBH</t>
   </si>
   <si>
     <t>110109500321654</t>
@@ -54,22 +63,49 @@
     <t>百旺电子测试1</t>
   </si>
   <si>
+    <t>XSF_DZDH</t>
+  </si>
+  <si>
+    <t>广东省深圳市南山区软件园0755-123456789</t>
+  </si>
+  <si>
+    <t>XSF_YHZH</t>
+  </si>
+  <si>
+    <t>test@fapiao.com</t>
+  </si>
+  <si>
     <t>KPZDBS</t>
   </si>
   <si>
     <t>1654dz2</t>
   </si>
   <si>
+    <t>GMF_NSRSBH</t>
+  </si>
+  <si>
     <t>GMF_MC</t>
   </si>
   <si>
-    <t>auto_gmf_name</t>
-  </si>
-  <si>
-    <t>kplsh_taitou</t>
-  </si>
-  <si>
-    <t>auto_lsh</t>
+    <t>GMF_DZDH</t>
+  </si>
+  <si>
+    <t>GMF_YHZH</t>
+  </si>
+  <si>
+    <t>GMF_SJH</t>
+  </si>
+  <si>
+    <t>GMF_DZYX</t>
+  </si>
+  <si>
+    <t>KPR</t>
+  </si>
+  <si>
+    <t>SKR</t>
+  </si>
+  <si>
+    <t>FHR</t>
   </si>
   <si>
     <t>api_name</t>
@@ -183,11 +219,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,43 +240,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFA9B7C6"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,28 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -292,6 +338,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -302,51 +355,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,187 +385,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,11 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +635,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +672,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -614,30 +698,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -654,149 +714,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,13 +872,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1172,16 +1247,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="70.875" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="86.875" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
@@ -1189,83 +1264,137 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="6" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="7" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="8" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="9" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="6"/>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" s="7" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://172.25.2.106:52087"/>
+    <hyperlink ref="B9" r:id="rId2" display="test@fapiao.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1278,7 +1407,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1292,30 +1421,30 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1459,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1349,48 +1478,48 @@
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/fpt_dsqzs/data/api_data.xlsx
+++ b/fpt_dsqzs/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project_peizhi" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>projectName</t>
   </si>
@@ -159,58 +159,13 @@
     <t>1行明细蓝票开票</t>
   </si>
   <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{parms:"",data:"json"}</t>
+    <t>{"Content-Type": "application/xml"}</t>
+  </si>
+  <si>
+    <t>{parms:"",data:"xml"}</t>
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>{
-       "REQUEST_COMMON_FPKJ": {
-            "FPQQLSH": "test2018011015400001",
-            "KPLX": "0",
-            "ZSFS": "0",
-            "FPLXDM": "",
-            "XSF_NSRSBH": "110109500321655",
-            "XSF_MC": "百旺电子测试2",
-            "XSF_DZDH": "甘肃兰州88888888",
-            "XSF_YHZH": "甘肃兰州招商银行888888888",
-            "GMF_MC": "zhangyiping_auto",
-            "GMF_NSRSBH": "110109500321999",
-            "GMF_DZDH": "深圳市-18420668866",
-            "GMF_YHZH": "110109500321999",
-            "KPR": "刘姐",
-            "TSPZ": "00",
-            "SKR": "吴利",
-            "FHR": "卢敏",
-            "YFP_DM": "",
-            "YFP_HM": "",
-            "JSHJ": "11",
-            "HJJE": "10.00",
-            "HJSE": "1",
-            "BZ": "1行明细",
-            "HYLX": "0",
-            "BY8": "d096e2dbdbe24f90a7515f479e613640",
-            "BY9": "admin",
-            "COMMON_FPKJ_XMXXS": {
-                 "COMMON_FPKJ_XMXX": {
-                      "FPHXZ": "0",
-                      "SPBM": "1030102010100000000",
-                      "LSLBS": "",
-                      "ZZSTSGL": "不征税",
-                      "XMMC": "不征税的大米",
-                      "XMSL": "1",
-                      "XMDJ": "10",
-                      "XMJE": "10",
-                      "SL": "0.1",
-                      "SE": "1"
-                 }
-            }
-       }
-  }'</t>
   </si>
 </sst>
 </file>
@@ -895,9 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1249,8 +1201,8 @@
   <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" outlineLevelCol="2"/>
@@ -1406,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1459,8 +1411,8 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1518,9 +1470,7 @@
       <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
